--- a/data/etc/column_정의서.xlsx
+++ b/data/etc/column_정의서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASIA-17\Desktop\Digital_Dev\My_project\FINAL_prj\NBA\nba\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\teamprj\nba_best_lineup\data\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347FE8F3-B82B-4961-A40F-9E567BC97D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="player" sheetId="1" r:id="rId1"/>
@@ -1079,7 +1080,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1140,7 +1141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,9 +1156,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,164 +1236,164 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="표1" displayName="표1" ref="B15:C30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표1" displayName="표1" ref="B15:C30" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="advanced"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="advanced"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표1_10" displayName="표1_10" ref="B14:C28" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="표1_10" displayName="표1_10" ref="B14:C28" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="2">
-    <tableColumn id="1" name="advanced" dataDxfId="14"/>
-    <tableColumn id="2" name="info" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="advanced" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="info" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="표1_1012" displayName="표1_1012" ref="B30:C39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="표1_1012" displayName="표1_1012" ref="B30:C39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="2">
-    <tableColumn id="1" name="defense" dataDxfId="10"/>
-    <tableColumn id="2" name="info" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="defense" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="info" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1_1013" displayName="표1_1013" ref="E14:F23" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="표1_1013" displayName="표1_1013" ref="E14:F23" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="four-factors"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="four-factors"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="표1_414" displayName="표1_414" ref="E3:F12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="표1_414" displayName="표1_414" ref="E3:F12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="2">
-    <tableColumn id="1" name="estimated-advanced" dataDxfId="6"/>
-    <tableColumn id="2" name="info" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="estimated-advanced" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="info" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="표1_4515" displayName="표1_4515" ref="E25:F33" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="표1_4515" displayName="표1_4515" ref="E25:F33" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="misc"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="misc"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="표1_3616" displayName="표1_3616" ref="H3:I18" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="표1_3616" displayName="표1_3616" ref="H3:I18" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="2">
-    <tableColumn id="1" name="scoring" dataDxfId="2"/>
-    <tableColumn id="2" name="info" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="scoring" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="info" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="표1_36717" displayName="표1_36717" ref="H20:I42" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="표1_36717" displayName="표1_36717" ref="H20:I42" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="traditional" dataDxfId="0"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="traditional" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="표1_3" displayName="표1_3" ref="B32:C45" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="표1_3" displayName="표1_3" ref="B32:C45" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="defense" dataDxfId="19"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="defense" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표1_4" displayName="표1_4" ref="E3:F13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="표1_4" displayName="표1_4" ref="E3:F13" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="estimated-advanced"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="estimated-advanced"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표1_45" displayName="표1_45" ref="E15:F27" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="표1_45" displayName="표1_45" ref="E15:F27" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="misc"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="misc"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="표1_36" displayName="표1_36" ref="H3:I18" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="표1_36" displayName="표1_36" ref="H3:I18" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="scoring" dataDxfId="18"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="scoring" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표1_367" displayName="표1_367" ref="H20:I42" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="표1_367" displayName="표1_367" ref="H20:I42" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="traditional" dataDxfId="17"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="traditional" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="표7" displayName="표7" ref="B3:C12" totalsRowShown="0">
-  <autoFilter ref="B3:C12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="표7" displayName="표7" ref="B3:C12" totalsRowShown="0">
+  <autoFilter ref="B3:C12" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="column_공통"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="column_공통"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표1_459" displayName="표1_459" ref="E29:F46" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="표1_459" displayName="표1_459" ref="E29:F46" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="usage"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="usage"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="표7_11" displayName="표7_11" ref="B3:C12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="표7_11" displayName="표7_11" ref="B3:C12" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="column_공통"/>
-    <tableColumn id="2" name="info"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="column_공통"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1663,11 +1661,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2605,10 +2603,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -2654,16 +2652,16 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2674,16 +2672,16 @@
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2694,16 +2692,16 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" t="s">
         <v>83</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>102</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2714,16 +2712,16 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>103</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2734,16 +2732,16 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>104</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2754,16 +2752,16 @@
       <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s">
         <v>86</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2774,16 +2772,16 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2794,16 +2792,16 @@
       <c r="C11" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>232</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s">
         <v>231</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2811,24 +2809,24 @@
       <c r="B12" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>108</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2845,18 +2843,18 @@
       <c r="F14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" t="s">
         <v>198</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
@@ -2865,18 +2863,18 @@
       <c r="F15" t="s">
         <v>242</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="E16" t="s">
@@ -2885,18 +2883,18 @@
       <c r="F16" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="E17" t="s">
@@ -2905,18 +2903,18 @@
       <c r="F17" t="s">
         <v>244</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="E18" t="s">
@@ -2925,18 +2923,18 @@
       <c r="F18" t="s">
         <v>249</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="E19" t="s">
@@ -2948,7 +2946,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>258</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2968,10 +2966,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="E21" t="s">
@@ -2988,10 +2986,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>227</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" t="s">
         <v>58</v>
       </c>
       <c r="E22" t="s">
@@ -3008,10 +3006,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>228</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>229</v>
       </c>
       <c r="E23" t="s">
@@ -3028,10 +3026,10 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -3042,10 +3040,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="4" t="s">
@@ -3062,10 +3060,10 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>41</v>
       </c>
       <c r="E26" t="s">
@@ -3082,10 +3080,10 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>42</v>
       </c>
       <c r="E27" t="s">
@@ -3102,10 +3100,10 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>43</v>
       </c>
       <c r="E28" t="s">
@@ -3156,10 +3154,10 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+      <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>30</v>
       </c>
       <c r="E31" t="s">
@@ -3176,10 +3174,10 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+      <c r="B32" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" t="s">
         <v>57</v>
       </c>
       <c r="E32" t="s">
@@ -3196,10 +3194,10 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" t="s">
         <v>58</v>
       </c>
       <c r="E33" t="s">
@@ -3216,10 +3214,10 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
+      <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="1"/>
@@ -3231,10 +3229,10 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" t="s">
         <v>64</v>
       </c>
       <c r="F35" s="1"/>
@@ -3246,10 +3244,10 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
+      <c r="B36" t="s">
         <v>259</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" t="s">
         <v>65</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3260,7 +3258,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
+      <c r="B37" t="s">
         <v>260</v>
       </c>
       <c r="C37" t="s">
@@ -3275,10 +3273,10 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
+      <c r="B38" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" t="s">
         <v>67</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3289,7 +3287,7 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="5" t="s">
+      <c r="B39" t="s">
         <v>262</v>
       </c>
       <c r="C39" s="1" t="s">
